--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>CENTRAL NEGROS POWER RELIABILITY, INC.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+  <si>
+    <t>PROGEN DIESEL TECH</t>
   </si>
   <si>
     <t>Purok San Jose, Brgy. Calumangan, Bago City</t>
@@ -35,13 +35,13 @@
     <t>TO</t>
   </si>
   <si>
-    <t>2019-02-01</t>
+    <t>2019-06-01</t>
   </si>
   <si>
     <t>FROM</t>
   </si>
   <si>
-    <t>2019-03-28</t>
+    <t>2019-08-06</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -89,29 +89,173 @@
     <t>End Use</t>
   </si>
   <si>
-    <t>2019-03-20</t>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>PROR-162-2019</t>
+  </si>
+  <si>
+    <t>CON-CON_1002</t>
+  </si>
+  <si>
+    <t>Paint Brush 1"</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>Progen Warehouse</t>
+  </si>
+  <si>
+    <t>Consumables / Cleaning &amp; Preservation of Spare parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progen Warehouse
+</t>
+  </si>
+  <si>
+    <t>2019-06-29</t>
+  </si>
+  <si>
+    <t>PROR-234-2019</t>
+  </si>
+  <si>
+    <t>CON-FUE_1001</t>
+  </si>
+  <si>
+    <t>Diesel, Fuel-Save</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>Sum-ag Petron Gas Station</t>
+  </si>
+  <si>
+    <t>Progen CV</t>
+  </si>
+  <si>
+    <t>Dismantling, cleaning, inspection, crack testing, measurement &amp; evaluation, reassembling &amp; preservation.</t>
+  </si>
+  <si>
+    <t>DG4 (CV Area) Main Engine Parts &amp; Components</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>PROR-131-2019</t>
+  </si>
+  <si>
+    <t>BUI-MAT_1001</t>
+  </si>
+  <si>
+    <t>Plywood, Ordinary, 4.5mm x 8ft</t>
+  </si>
+  <si>
+    <t>sht/s</t>
+  </si>
+  <si>
+    <t>A-one Industrial Hardware</t>
+  </si>
+  <si>
+    <t>Fabrication of Wooden Crates for DG1 Engine Parts (Pistons &amp; Connecting Rods)</t>
+  </si>
+  <si>
+    <t>DG1 (CV Area) Main Engine Parts &amp; Components.</t>
+  </si>
+  <si>
+    <t>CON-CHE_1001</t>
+  </si>
+  <si>
+    <t>Vappro 868 VCI Corrosion Inbitor Wax Coating (4 liters/gallon)</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>Impact One Nation Industrial Corporation</t>
+  </si>
+  <si>
+    <t>PROR-173-2019</t>
+  </si>
+  <si>
+    <t>2019-06-22</t>
   </si>
   <si>
     <t>begbal</t>
   </si>
   <si>
-    <t>005Q022</t>
-  </si>
-  <si>
-    <t>Oil Scrapper PF 5-22</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting Department
-</t>
-  </si>
-  <si>
-    <t>40MVA Power Transformer Secondary Bus Framing/Support</t>
-  </si>
-  <si>
-    <t>1.5 MVA Station Transformer DG4 &amp; DG5 Generator Winding/VCB/MOCB/Cable Monitor</t>
+    <t>PRO-PF 32-249A</t>
+  </si>
+  <si>
+    <t>Spring Guide</t>
+  </si>
+  <si>
+    <t>Progen</t>
+  </si>
+  <si>
+    <t>Inventory Beginning Balance</t>
+  </si>
+  <si>
+    <t>Warehouse Beginning Balance</t>
+  </si>
+  <si>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>_1001</t>
+  </si>
+  <si>
+    <t>O-ring, 10mm ID x 14mm OD x 2mmT</t>
+  </si>
+  <si>
+    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.</t>
+  </si>
+  <si>
+    <t>Bacolod HR</t>
+  </si>
+  <si>
+    <t>Additional Padlock for Reconditioning Equipment Tool Cabinet</t>
+  </si>
+  <si>
+    <t>40 MVA Power Transformer</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>MTG Gasoline Service Station</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>CON-FUE_1002</t>
+  </si>
+  <si>
+    <t>Penetrating Oil Multi Use, WD40</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>C.Y. Ong Multi-Distributor</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>CON-CON_1001</t>
+  </si>
+  <si>
+    <t>Scraper, Industrial; Size: 2"</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -632,7 +776,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -849,88 +993,598 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" t="s">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="3">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
     <protectedRange name="p1aa278975760d5a8789fe736a4242e4f" sqref="A11:Z11" password="C724"/>
-    <protectedRange name="pb92778bd78a4353a4ab9294156805e41" sqref="A14:AC14" password="C724"/>
-    <protectedRange name="p3a834472df22454fed33e8b780f2ec25" sqref="A16:AC16" password="C724"/>
+    <protectedRange name="p2d50bcfbfb59eed8c1608c98599dde33" sqref="A12:Z12" password="C724"/>
+    <protectedRange name="pc1a4c45411a7b95306d8a232689e20b1" sqref="A13:Z13" password="C724"/>
+    <protectedRange name="p8719be3b033d56416c2459d20ed7acf0" sqref="A14:Z14" password="C724"/>
+    <protectedRange name="p430addb3dd5b129a90e87b2af7db32cf" sqref="A15:Z15" password="C724"/>
+    <protectedRange name="pdac316cf8e611047934990c6afb0100a" sqref="A16:Z16" password="C724"/>
+    <protectedRange name="pac6911475955aba68a711565feae3a6a" sqref="A17:Z17" password="C724"/>
+    <protectedRange name="pcc518def6f8a4eb777dc6a8a1cb23e74" sqref="A18:Z18" password="C724"/>
+    <protectedRange name="p7a00206c9f8849998c8649eff43c8cd5" sqref="A19:Z19" password="C724"/>
+    <protectedRange name="p00866f9227b5920e8af5a41faf505954" sqref="A20:Z20" password="C724"/>
+    <protectedRange name="pb5d212ac1780894358016b591d961e29" sqref="A21:Z21" password="C724"/>
+    <protectedRange name="p1627ec246080e388511f0e2e333f62b2" sqref="A24:AC24" password="C724"/>
+    <protectedRange name="p9f36a12064855111794ae27561c69276" sqref="A26:AC26" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B12:C12"/>
@@ -950,6 +1604,96 @@
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>PROGEN DIESEL TECH</t>
   </si>
@@ -35,7 +35,7 @@
     <t>TO</t>
   </si>
   <si>
-    <t>2019-06-01</t>
+    <t>2019-04-03</t>
   </si>
   <si>
     <t>FROM</t>
@@ -89,61 +89,103 @@
     <t>End Use</t>
   </si>
   <si>
-    <t>2019-07-01</t>
-  </si>
-  <si>
-    <t>PROR-162-2019</t>
-  </si>
-  <si>
-    <t>CON-CON_1002</t>
-  </si>
-  <si>
-    <t>Paint Brush 1"</t>
-  </si>
-  <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>Greenlane Hardware and Construction Supply Inc</t>
+    <t>2019-07-13</t>
+  </si>
+  <si>
+    <t>PROGEN-267-2019</t>
+  </si>
+  <si>
+    <t>CON-FUE_1002</t>
+  </si>
+  <si>
+    <t>Penetrating Oil Multi Use, WD40</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>C.Y. Ong Multi-Distributor</t>
   </si>
   <si>
     <t>Progen Warehouse</t>
   </si>
   <si>
-    <t>Consumables / Cleaning &amp; Preservation of Spare parts</t>
+    <t>Progen Consumables</t>
   </si>
   <si>
     <t xml:space="preserve">Progen Warehouse
 </t>
   </si>
   <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>PROR-234-2019</t>
+  </si>
+  <si>
+    <t>CON-OFF_1001</t>
+  </si>
+  <si>
+    <t>Marker, Metal, Color: Yellow</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>Visayan Construction Supply</t>
+  </si>
+  <si>
+    <t>Progen CV</t>
+  </si>
+  <si>
+    <t>Dismantling, cleaning, inspection, crack testing, measurement &amp; evaluation, reassembling &amp; preservation.</t>
+  </si>
+  <si>
+    <t>DG4 (CV Area) Main Engine Parts &amp; Components</t>
+  </si>
+  <si>
+    <t>2019-07-11</t>
+  </si>
+  <si>
+    <t>PROR-086-2019</t>
+  </si>
+  <si>
+    <t>CON-FUE_1001</t>
+  </si>
+  <si>
+    <t>Diesel, Fuel-Save</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>Petron Corporation</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>PROR-162-2019</t>
+  </si>
+  <si>
+    <t>CON-CON_1002</t>
+  </si>
+  <si>
+    <t>Paint Brush 1"</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>Consumables / Cleaning &amp; Preservation of Spare parts</t>
+  </si>
+  <si>
     <t>2019-06-29</t>
   </si>
   <si>
-    <t>PROR-234-2019</t>
-  </si>
-  <si>
-    <t>CON-FUE_1001</t>
-  </si>
-  <si>
-    <t>Diesel, Fuel-Save</t>
-  </si>
-  <si>
-    <t>ltr/s</t>
-  </si>
-  <si>
     <t>Sum-ag Petron Gas Station</t>
   </si>
   <si>
-    <t>Progen CV</t>
-  </si>
-  <si>
-    <t>Dismantling, cleaning, inspection, crack testing, measurement &amp; evaluation, reassembling &amp; preservation.</t>
-  </si>
-  <si>
-    <t>DG4 (CV Area) Main Engine Parts &amp; Components</t>
-  </si>
-  <si>
     <t>2019-06-28</t>
   </si>
   <si>
@@ -204,30 +246,6 @@
     <t>Warehouse Beginning Balance</t>
   </si>
   <si>
-    <t>2019-06-20</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>_1001</t>
-  </si>
-  <si>
-    <t>O-ring, 10mm ID x 14mm OD x 2mmT</t>
-  </si>
-  <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.</t>
-  </si>
-  <si>
-    <t>Bacolod HR</t>
-  </si>
-  <si>
-    <t>Additional Padlock for Reconditioning Equipment Tool Cabinet</t>
-  </si>
-  <si>
-    <t>40 MVA Power Transformer</t>
-  </si>
-  <si>
     <t>2019-06-10</t>
   </si>
   <si>
@@ -237,18 +255,6 @@
     <t>2019-06-04</t>
   </si>
   <si>
-    <t>CON-FUE_1002</t>
-  </si>
-  <si>
-    <t>Penetrating Oil Multi Use, WD40</t>
-  </si>
-  <si>
-    <t>can/s</t>
-  </si>
-  <si>
-    <t>C.Y. Ong Multi-Distributor</t>
-  </si>
-  <si>
     <t>2019-06-03</t>
   </si>
   <si>
@@ -256,6 +262,387 @@
   </si>
   <si>
     <t>Scraper, Industrial; Size: 2"</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>PRO-PF 30-7</t>
+  </si>
+  <si>
+    <t>Hexagonal Socket Screw Head, PF 30-7</t>
+  </si>
+  <si>
+    <t>PRO-PF 8-4</t>
+  </si>
+  <si>
+    <t>Cylinder Head Nut, PF 8-4</t>
+  </si>
+  <si>
+    <t>PRO-PF 3-5</t>
+  </si>
+  <si>
+    <t>Fitted Bolt, PF 3-5</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-Seat-A</t>
+  </si>
+  <si>
+    <t>Intake Valve Seat Ring (A), PF 10-Seat A</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-25B</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-25B</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-25A</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-25A</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-27A</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-27A</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-27B</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-27B</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-27C</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-27C</t>
+  </si>
+  <si>
+    <t>PRO-PF 5-4</t>
+  </si>
+  <si>
+    <t>Washer, PF 5-4</t>
+  </si>
+  <si>
+    <t>PRO-PF 32-59</t>
+  </si>
+  <si>
+    <t>Packing Ring, PF 32-59</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-26C</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-26C</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-26B</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-26B</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-26A</t>
+  </si>
+  <si>
+    <t>Stud Bolt, PF 10-26A</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-35</t>
+  </si>
+  <si>
+    <t>Self Lock Nut, PF 10-35</t>
+  </si>
+  <si>
+    <t>PRO-PF 5-5A</t>
+  </si>
+  <si>
+    <t>Nut, PF 5-5A</t>
+  </si>
+  <si>
+    <t>PRO-PF 5-5B</t>
+  </si>
+  <si>
+    <t>Nut, PF 5-5B</t>
+  </si>
+  <si>
+    <t>PRO-PF 3-7</t>
+  </si>
+  <si>
+    <t>Spring Pin, PF 3-7</t>
+  </si>
+  <si>
+    <t>PRO-PF 16-4</t>
+  </si>
+  <si>
+    <t>Tongued Washer, PF 16-4</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-Seat-B</t>
+  </si>
+  <si>
+    <t>Intake Valve Seat Ring (B), PF 10 Seat B</t>
+  </si>
+  <si>
+    <t>PRO-PF 15-39B</t>
+  </si>
+  <si>
+    <t>Split Collar / Conical clam, PF 15-39B</t>
+  </si>
+  <si>
+    <t>PRO-PF 15-39A</t>
+  </si>
+  <si>
+    <t>Split Collar / Conical clam, PF 15-39A</t>
+  </si>
+  <si>
+    <t>PRO-PF 18-61A</t>
+  </si>
+  <si>
+    <t>Slotted Nut, PF 18-61A</t>
+  </si>
+  <si>
+    <t>PF 18-61B</t>
+  </si>
+  <si>
+    <t>Slotted Nut, PF 18-61B</t>
+  </si>
+  <si>
+    <t>2019-04-06</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-7</t>
+  </si>
+  <si>
+    <t>Tie Rod Nut, PF 1-7</t>
+  </si>
+  <si>
+    <t>PRO-PF 3-216</t>
+  </si>
+  <si>
+    <t>Small End Bearing, PF 3-216</t>
+  </si>
+  <si>
+    <t>PRO-PF 15-5</t>
+  </si>
+  <si>
+    <t>Exhaust Valve Seat, PF 15-5</t>
+  </si>
+  <si>
+    <t>PRO-PF 15-204</t>
+  </si>
+  <si>
+    <t>Inlet Valve Guide, PF 15-204</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-10</t>
+  </si>
+  <si>
+    <t>Piston, PF 1-10</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-24B</t>
+  </si>
+  <si>
+    <t>Dowel Pin, PF 1-24B</t>
+  </si>
+  <si>
+    <t>PRO-PF 5-13</t>
+  </si>
+  <si>
+    <t>Circlip, PF 5-13</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-8/9/12/13</t>
+  </si>
+  <si>
+    <t>Jack Bolt Assembly (New), PF 1-8/9/12/13</t>
+  </si>
+  <si>
+    <t>set/s</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-13</t>
+  </si>
+  <si>
+    <t>Locking Washer, PF 1-13</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-9</t>
+  </si>
+  <si>
+    <t>Jack Bolt, PF 1-9</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-23</t>
+  </si>
+  <si>
+    <t>Spherical Piece, PF 1-23</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-11</t>
+  </si>
+  <si>
+    <t>Upper Piece, PF 1-11</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-12</t>
+  </si>
+  <si>
+    <t>Spherical Washer, PF 1-12</t>
+  </si>
+  <si>
+    <t>PRO-PF 1-8</t>
+  </si>
+  <si>
+    <t>Cylinder (Jack Body), Pf 1-8</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-31A</t>
+  </si>
+  <si>
+    <t>Sleeve, PF 10-31A</t>
+  </si>
+  <si>
+    <t>PRO-PF 16-3 A</t>
+  </si>
+  <si>
+    <t>Adjusting Nut, PF 16-3A</t>
+  </si>
+  <si>
+    <t>PRO-PF 16-3 B</t>
+  </si>
+  <si>
+    <t>Adjusting Nut, PF 16-3B</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-31D</t>
+  </si>
+  <si>
+    <t>Sleeve, PF 10-31D</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-31B</t>
+  </si>
+  <si>
+    <t>Sleeve, PF 10-31B</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-31C</t>
+  </si>
+  <si>
+    <t>Sleeve, PF 10-31C</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-30A</t>
+  </si>
+  <si>
+    <t>Tie Rod, PF 10-30A</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-30C</t>
+  </si>
+  <si>
+    <t>Tie Rod, PF 10-30C</t>
+  </si>
+  <si>
+    <t>PRO-PF 10-30B</t>
+  </si>
+  <si>
+    <t>Tie Rod, PF 10-30B</t>
+  </si>
+  <si>
+    <t>PRO-PF 96-5</t>
+  </si>
+  <si>
+    <t>Lubrication Piece/Oil Intake Pin, PF 96-5</t>
+  </si>
+  <si>
+    <t>PRO-PF 30-18</t>
+  </si>
+  <si>
+    <t>Upper Spring Collar, PF 30-18</t>
+  </si>
+  <si>
+    <t>PRO-PF 142-280</t>
+  </si>
+  <si>
+    <t>Hexagonal Socket Head Screw/ Socket Head Bolt, PF 142-280</t>
+  </si>
+  <si>
+    <t>PRO-PF 96-317</t>
+  </si>
+  <si>
+    <t>Tongued Washer, PF 96-317</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-67</t>
+  </si>
+  <si>
+    <t>Connection Piece, PF 102-67</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-205</t>
+  </si>
+  <si>
+    <t>Bolt, PF 102-205</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-214</t>
+  </si>
+  <si>
+    <t>Circlip, PF 102-214</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-308</t>
+  </si>
+  <si>
+    <t>Shaft, PF 102-308</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-52</t>
+  </si>
+  <si>
+    <t>Pin, PF 102-52</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-56</t>
+  </si>
+  <si>
+    <t>Bush (Copper), PF 102-56</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-87</t>
+  </si>
+  <si>
+    <t>Nut (Lock), PF 102-87</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-118</t>
+  </si>
+  <si>
+    <t>Dowel Pin / Linkage Pin, PF 102-118</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-84</t>
+  </si>
+  <si>
+    <t>Split Pin, PF 102-84</t>
+  </si>
+  <si>
+    <t>PRO-PF 102-89</t>
+  </si>
+  <si>
+    <t>Split Pin, PF 102-89</t>
+  </si>
+  <si>
+    <t>PRO-PF 125-50</t>
+  </si>
+  <si>
+    <t>Self Lock Nut, PF 125-50</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -460,7 +847,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1152525" cy="333375"/>
+    <xdr:ext cx="1104900" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
@@ -776,7 +1163,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -1043,7 +1430,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
@@ -1093,7 +1480,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
@@ -1105,17 +1492,17 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -1125,11 +1512,11 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -1143,14 +1530,14 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1160,7 +1547,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1175,32 +1562,32 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1215,7 +1602,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -1225,47 +1612,47 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -1275,11 +1662,11 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1293,29 +1680,29 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -1325,32 +1712,32 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1365,7 +1752,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -1375,32 +1762,32 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1410,12 +1797,12 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -1425,47 +1812,47 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -1475,98 +1862,3298 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="A24" s="3">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2">
+        <v>115</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="3">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2">
+        <v>194</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="3">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2">
+        <v>174</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2">
+        <v>22</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="3">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2">
+        <v>73</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="3">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2">
+        <v>111</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2">
+        <v>93</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="3">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2">
+        <v>9</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2">
+        <v>35</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="3">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2">
+        <v>106</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="3">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2">
+        <v>140</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="3">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2">
+        <v>113</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="3">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2">
+        <v>163</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="3">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="2">
         <v>81</v>
       </c>
-      <c r="G24" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="3">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="2">
+        <v>369</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="3">
+        <v>29</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="2">
+        <v>70</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="3">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="2">
+        <v>38</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="3">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="2">
         <v>85</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="3">
+        <v>32</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="2">
+        <v>46</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="3">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="2">
+        <v>73</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="3">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="2">
+        <v>5</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="3">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="2">
+        <v>213</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="3">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="2">
+        <v>24</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="3">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="2">
+        <v>35</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="3">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="2">
+        <v>20</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="3">
+        <v>39</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="2">
+        <v>17</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="3">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2">
+        <v>5</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="3">
+        <v>41</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="3">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="2">
+        <v>11</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="3">
+        <v>43</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="2">
+        <v>89</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="3">
+        <v>44</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="2">
+        <v>349</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="3">
+        <v>45</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="2">
+        <v>8</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="3">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="2">
+        <v>5</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="3">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="3">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="2">
+        <v>14</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="3">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="2">
+        <v>10</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="3">
+        <v>50</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="3">
+        <v>51</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="3">
+        <v>52</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="2">
+        <v>36</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="3">
+        <v>53</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="2">
+        <v>26</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="3">
+        <v>54</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="2">
+        <v>40</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="3">
+        <v>55</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="2">
+        <v>16</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="3">
+        <v>56</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="2">
+        <v>35</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="3">
+        <v>57</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2">
+        <v>21</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="3">
+        <v>58</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="2">
+        <v>64</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="3">
+        <v>59</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="3">
+        <v>60</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="2">
+        <v>104</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="3">
+        <v>61</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="2">
+        <v>6</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="3">
+        <v>62</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="2">
+        <v>3</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="3">
+        <v>63</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="2">
+        <v>20</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="3">
+        <v>64</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="2">
+        <v>54</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="3">
+        <v>65</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="2">
+        <v>8</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="3">
+        <v>66</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="3">
+        <v>67</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="2">
+        <v>31</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="3">
+        <v>68</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="3">
+        <v>69</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="2">
+        <v>21</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="3">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="2">
+        <v>77</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="3">
+        <v>71</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="2">
+        <v>48</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" s="3">
+        <v>72</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="2">
+        <v>30</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" s="3">
+        <v>73</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="2">
+        <v>63</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" s="3">
+        <v>74</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="2">
+        <v>74</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" s="3">
+        <v>75</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="2">
+        <v>12</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="G88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="G91" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1583,8 +5170,72 @@
     <protectedRange name="p7a00206c9f8849998c8649eff43c8cd5" sqref="A19:Z19" password="C724"/>
     <protectedRange name="p00866f9227b5920e8af5a41faf505954" sqref="A20:Z20" password="C724"/>
     <protectedRange name="pb5d212ac1780894358016b591d961e29" sqref="A21:Z21" password="C724"/>
-    <protectedRange name="p1627ec246080e388511f0e2e333f62b2" sqref="A24:AC24" password="C724"/>
-    <protectedRange name="p9f36a12064855111794ae27561c69276" sqref="A26:AC26" password="C724"/>
+    <protectedRange name="pc596d3beca588f2db134b5fc7a73c795" sqref="A22:Z22" password="C724"/>
+    <protectedRange name="pfcd5f65f71baf2b9788644e31b2cf3b8" sqref="A23:Z23" password="C724"/>
+    <protectedRange name="p54a53e1f035250988daf16f487313289" sqref="A24:Z24" password="C724"/>
+    <protectedRange name="pa19d711edaf985f712cb48698812b3fc" sqref="A25:Z25" password="C724"/>
+    <protectedRange name="pefd16e087a388b780f2be41286ab7091" sqref="A26:Z26" password="C724"/>
+    <protectedRange name="p6f1d5394f37db91e2e13685e88d66a2b" sqref="A27:Z27" password="C724"/>
+    <protectedRange name="p83e537b10ffd68b76246239fb94b6486" sqref="A28:Z28" password="C724"/>
+    <protectedRange name="p1e196d16c4daf50dbeee87b5b30dd96c" sqref="A29:Z29" password="C724"/>
+    <protectedRange name="p7bb64eb00ac02c7914917ee9b22bc547" sqref="A30:Z30" password="C724"/>
+    <protectedRange name="p2fd6bf1a6ce39cd0cdb7eacacf5deec7" sqref="A31:Z31" password="C724"/>
+    <protectedRange name="peeac4a099ba31f7f9a42b1bd45de2216" sqref="A32:Z32" password="C724"/>
+    <protectedRange name="pedd906afca7f6abefa27ebb8b8d1f8a5" sqref="A33:Z33" password="C724"/>
+    <protectedRange name="p0e486c5585dc30d740cbfc8823873f2a" sqref="A34:Z34" password="C724"/>
+    <protectedRange name="p61655b15f44f5410ae51eae59d13d9f9" sqref="A35:Z35" password="C724"/>
+    <protectedRange name="p9a6a68a4819baf9e2ab99f245831997c" sqref="A36:Z36" password="C724"/>
+    <protectedRange name="p415706ccad6829b4a104b62a75da14e0" sqref="A37:Z37" password="C724"/>
+    <protectedRange name="pbe4e30c41fc78588fe84b79b12c6a91e" sqref="A38:Z38" password="C724"/>
+    <protectedRange name="pa8bec3077e9776fe1c584b96698054be" sqref="A39:Z39" password="C724"/>
+    <protectedRange name="p836973d9750c79ecf821bbb32ad6f2f4" sqref="A40:Z40" password="C724"/>
+    <protectedRange name="pc7c2934288df959793f8d544ee83e1f4" sqref="A41:Z41" password="C724"/>
+    <protectedRange name="pa49a6564f1cd07123d6c2d632b6ec55e" sqref="A42:Z42" password="C724"/>
+    <protectedRange name="p4e63f908d7a354d47582b2c233181f18" sqref="A43:Z43" password="C724"/>
+    <protectedRange name="p78162aa1e5a89854cf3250043634c091" sqref="A44:Z44" password="C724"/>
+    <protectedRange name="p9bbcc060d98c8b785e1697d2d1a407da" sqref="A45:Z45" password="C724"/>
+    <protectedRange name="p53c70110c979ef181136c9125cfc1064" sqref="A46:Z46" password="C724"/>
+    <protectedRange name="pca2402cff2801feb89e30c9d3d05b421" sqref="A47:Z47" password="C724"/>
+    <protectedRange name="p64bd9a4f243027e9e0a58a2a8bc84e6b" sqref="A48:Z48" password="C724"/>
+    <protectedRange name="p6c5f22f271139ab8bdbbd722b2d1ee8f" sqref="A49:Z49" password="C724"/>
+    <protectedRange name="p04ef9361d2276b9c86913b2506e57a28" sqref="A50:Z50" password="C724"/>
+    <protectedRange name="pbe6286d89002acc25f6db60a4c7a4d59" sqref="A51:Z51" password="C724"/>
+    <protectedRange name="p4d53e1b8919cd4b6f71c342db93ccb01" sqref="A52:Z52" password="C724"/>
+    <protectedRange name="p702d83e1d4273293fcf7944fb5931366" sqref="A53:Z53" password="C724"/>
+    <protectedRange name="pb92d2da5494a76ed142ecdbb7daf5f48" sqref="A54:Z54" password="C724"/>
+    <protectedRange name="p6384699169ebc64693e2547b676517a2" sqref="A55:Z55" password="C724"/>
+    <protectedRange name="pb9b29fb885fa842468730d93e740ea62" sqref="A56:Z56" password="C724"/>
+    <protectedRange name="pa2deefd72c7383bcd4cb65385bc882e0" sqref="A57:Z57" password="C724"/>
+    <protectedRange name="p36b7f840eeadccc7fa209de2abc1378d" sqref="A58:Z58" password="C724"/>
+    <protectedRange name="paf913f980c7b4c4f6a1f5a78871499e6" sqref="A59:Z59" password="C724"/>
+    <protectedRange name="p49af60f88d1ed7076993271e47bfbe72" sqref="A60:Z60" password="C724"/>
+    <protectedRange name="p67162031892ae76d707fa97e1057a64e" sqref="A61:Z61" password="C724"/>
+    <protectedRange name="p5a94676798d94f1cf32241b29c3fcbef" sqref="A62:Z62" password="C724"/>
+    <protectedRange name="pe7134e88a268eed68913622fe9651051" sqref="A63:Z63" password="C724"/>
+    <protectedRange name="p4c41621bae671151c812622813cc28e7" sqref="A64:Z64" password="C724"/>
+    <protectedRange name="pe9a3c5eb448176974b1c16de23722a4e" sqref="A65:Z65" password="C724"/>
+    <protectedRange name="pcebb34c2aaef07657ad91d0b57a10761" sqref="A66:Z66" password="C724"/>
+    <protectedRange name="p6500308f5a6a015ba6cc2e0f044d5303" sqref="A67:Z67" password="C724"/>
+    <protectedRange name="pbbdfd5f0f870295f4fc747668161f88c" sqref="A68:Z68" password="C724"/>
+    <protectedRange name="p158f15e1626df324a44006456ab0c2ca" sqref="A69:Z69" password="C724"/>
+    <protectedRange name="p00946f70286371345c5253bf41498254" sqref="A70:Z70" password="C724"/>
+    <protectedRange name="pd454cbbfdcc413808dabda8c229d96a6" sqref="A71:Z71" password="C724"/>
+    <protectedRange name="pc7b1bc57970b2ac2d341e330e1d3ac86" sqref="A72:Z72" password="C724"/>
+    <protectedRange name="p0c105bd312547004e4a921b166a9c69b" sqref="A73:Z73" password="C724"/>
+    <protectedRange name="p844bd0250d5492456f7abe92ecb097a9" sqref="A74:Z74" password="C724"/>
+    <protectedRange name="p4fbafb9bb559959ada7f81c8deaf25e0" sqref="A75:Z75" password="C724"/>
+    <protectedRange name="p2601c3e169d221c8c86402f48c842459" sqref="A76:Z76" password="C724"/>
+    <protectedRange name="p7400b20ffa4a2cf2b7606f5eadb29243" sqref="A77:Z77" password="C724"/>
+    <protectedRange name="p616bdb274cba2de3b52bf4b90ef7dc83" sqref="A78:Z78" password="C724"/>
+    <protectedRange name="pa67ed75c70d0f8ab9dc450fb811a8cae" sqref="A79:Z79" password="C724"/>
+    <protectedRange name="pd3be7461a364f76b11318363a8736481" sqref="A80:Z80" password="C724"/>
+    <protectedRange name="p7196338f657e27c459205102b17745b3" sqref="A81:Z81" password="C724"/>
+    <protectedRange name="p4a8b6312fb841584e19eee34997c2fe1" sqref="A82:Z82" password="C724"/>
+    <protectedRange name="p2dbb2de8062113d1f4eb18bb8c2f9579" sqref="A83:Z83" password="C724"/>
+    <protectedRange name="p04038346a0fef1c604365b0ddac89090" sqref="A84:Z84" password="C724"/>
+    <protectedRange name="p077babd85e2e648c05f2969eb258d90f" sqref="A85:Z85" password="C724"/>
+    <protectedRange name="p18268177f6c58571f048963661d755b9" sqref="A88:AC88" password="C724"/>
+    <protectedRange name="p91f046b88d85e40e09406d0ce982f4a5" sqref="A90:AC90" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B12:C12"/>
@@ -1694,6 +5345,582 @@
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="U22:W22"/>
     <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:Z66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="U71:W71"/>
+    <mergeCell ref="X71:Z71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="U72:W72"/>
+    <mergeCell ref="X72:Z72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="U73:W73"/>
+    <mergeCell ref="X73:Z73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:T74"/>
+    <mergeCell ref="U74:W74"/>
+    <mergeCell ref="X74:Z74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="U75:W75"/>
+    <mergeCell ref="X75:Z75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="U76:W76"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="R77:T77"/>
+    <mergeCell ref="U77:W77"/>
+    <mergeCell ref="X77:Z77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="U78:W78"/>
+    <mergeCell ref="X78:Z78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="X79:Z79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="R80:T80"/>
+    <mergeCell ref="U80:W80"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="U82:W82"/>
+    <mergeCell ref="X82:Z82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="X84:Z84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="R86:T86"/>
+    <mergeCell ref="U86:W86"/>
+    <mergeCell ref="X86:Z86"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>PROGEN DIESEL TECH</t>
   </si>
@@ -41,7 +41,7 @@
     <t>FROM</t>
   </si>
   <si>
-    <t>2020-04-27</t>
+    <t>2020-04-22</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -62,6 +62,12 @@
     <t>Received Date</t>
   </si>
   <si>
+    <t>Dr No.</t>
+  </si>
+  <si>
+    <t>MRIF No.</t>
+  </si>
+  <si>
     <t>PR No.</t>
   </si>
   <si>
@@ -95,7 +101,10 @@
     <t>End Use</t>
   </si>
   <si>
-    <t>2020-04-22</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>MrecF-2020-04-0131</t>
   </si>
   <si>
     <t>PR-133-2019</t>
@@ -129,6 +138,9 @@
   </si>
   <si>
     <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0016</t>
   </si>
   <si>
     <t>WHP20-1000</t>
@@ -156,6 +168,9 @@
 </t>
   </si>
   <si>
+    <t>MrecF-2020-03-0017</t>
+  </si>
+  <si>
     <t>WHP20-1002</t>
   </si>
   <si>
@@ -177,6 +192,9 @@
     <t>2020-03-13</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0014</t>
+  </si>
+  <si>
     <t>CON-FUE_1001</t>
   </si>
   <si>
@@ -189,6 +207,9 @@
     <t>Sum-ag Petron Gas Station</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0015</t>
+  </si>
+  <si>
     <t>CON-HOU_1015</t>
   </si>
   <si>
@@ -201,6 +222,9 @@
     <t>2020-03-12</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0007</t>
+  </si>
+  <si>
     <t>PROGEN-004-2019</t>
   </si>
   <si>
@@ -216,6 +240,9 @@
     <t>Consumables / Cleaning &amp; Preservation of Spare parts</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0008</t>
+  </si>
+  <si>
     <t>CON-CON_1019</t>
   </si>
   <si>
@@ -225,6 +252,9 @@
     <t>gal/s</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0009</t>
+  </si>
+  <si>
     <t>WHP20-1001</t>
   </si>
   <si>
@@ -237,6 +267,12 @@
     <t>DG4 (CV Area) Main Engine Parts &amp; Components</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0010</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0011</t>
+  </si>
+  <si>
     <t>CON-HOU_1001</t>
   </si>
   <si>
@@ -249,6 +285,9 @@
     <t>Procolors T-Shirts Printing</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0012</t>
+  </si>
+  <si>
     <t>CON-HOU_1005</t>
   </si>
   <si>
@@ -258,6 +297,9 @@
     <t>pair/s</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0013</t>
+  </si>
+  <si>
     <t>WHP20-1003</t>
   </si>
   <si>
@@ -267,21 +309,33 @@
     <t>2020-03-07</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0003</t>
+  </si>
+  <si>
     <t>PROGEN-006-2019</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0004</t>
+  </si>
+  <si>
     <t>CON-CON_1002</t>
   </si>
   <si>
     <t>Paint Brush 1"</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0005</t>
+  </si>
+  <si>
     <t>CON-HOU_1003</t>
   </si>
   <si>
     <t>Gloves, Cotton</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0006</t>
+  </si>
+  <si>
     <t>PROGEN-011-2019</t>
   </si>
   <si>
@@ -297,6 +351,9 @@
     <t>2020-03-05</t>
   </si>
   <si>
+    <t>MrecF-2020-03-0002</t>
+  </si>
+  <si>
     <t>CON-HOU_1006</t>
   </si>
   <si>
@@ -307,6 +364,9 @@
   </si>
   <si>
     <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0001</t>
   </si>
   <si>
     <t>PROGEN-008-2019</t>
@@ -469,10 +529,10 @@
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -845,7 +905,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -853,7 +913,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="12" t="s">
@@ -885,9 +945,10 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="9"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="9"/>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="7"/>
       <c r="B2"/>
       <c r="C2" s="7" t="s">
@@ -906,12 +967,12 @@
       <c r="N2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -921,9 +982,10 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2" s="10"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AD2"/>
+      <c r="AE2" s="10"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="8"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
@@ -955,9 +1017,10 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="11"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -976,12 +1039,12 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1001,1182 +1064,1280 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:31">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="Q10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
+      <c r="R10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3" t="s">
+      <c r="S10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3" t="s">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="2">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
         <v>20</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="2">
         <v>20</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>22</v>
+      </c>
+      <c r="R12" s="2">
+        <v>22</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>22</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>1017</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="2">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="2">
+      <c r="P13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="2">
         <v>700</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="2">
         <v>700</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>1018</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>240</v>
+      </c>
+      <c r="R14" s="2">
+        <v>240</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>240</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>1016</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="2">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2">
         <v>15</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="O15" s="2"/>
-      <c r="P15" s="2">
+      <c r="P15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="2">
         <v>35.15</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="2">
         <v>527.25</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W15" s="1"/>
-      <c r="X15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="2">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="P16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="2">
         <v>659.75</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="2">
         <v>659.75</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W16" s="1"/>
-      <c r="X16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="2">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2">
         <v>100</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="2">
+      <c r="P17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="2">
         <v>14</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="2">
         <v>1400</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="2">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O18" s="2"/>
-      <c r="P18" s="2">
+      <c r="P18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="2">
         <v>240</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="2">
         <v>240</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="2">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2">
         <v>5</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="2">
+      <c r="P19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="2">
         <v>12.7</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="2">
         <v>63.5</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="2">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2">
         <v>100</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="2">
+      <c r="P20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="2">
         <v>14</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="2">
         <v>1400</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W20" s="1"/>
-      <c r="X20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>1009</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2">
         <v>5</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="O21" s="2"/>
-      <c r="P21" s="2">
+      <c r="P21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="2">
         <v>50</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="2">
         <v>250</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="2">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2">
         <v>3</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="O22" s="2"/>
-      <c r="P22" s="2">
+      <c r="P22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q22" s="2">
         <v>32</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="2">
         <v>96</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="2">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O23" s="2"/>
-      <c r="P23" s="2">
+      <c r="P23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="2">
         <v>220</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="2">
         <v>220</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="2">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2">
         <v>5</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2">
+      <c r="P24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="2">
         <v>32</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="2">
         <v>160</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="2">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2">
         <v>5</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="O25" s="2"/>
-      <c r="P25" s="2">
+      <c r="P25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="2">
         <v>6</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="2">
         <v>30</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="1">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="2">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2">
         <v>6</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="O26" s="2"/>
-      <c r="P26" s="2">
+      <c r="P26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="2">
         <v>11.45</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="2">
         <v>68.7</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="1">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="2">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2">
         <v>1</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="2">
+      <c r="P27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="2">
         <v>460</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="2">
         <v>460</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="T27" s="1"/>
-      <c r="U27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W27" s="1"/>
-      <c r="X27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="1">
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="2">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="O28" s="2"/>
-      <c r="P28" s="2">
+      <c r="P28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2">
         <v>280</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="2">
         <v>280</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="1">
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2">
         <v>5</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="2">
+      <c r="P29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="2">
         <v>210</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="2">
         <v>1050</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="T29" s="1"/>
-      <c r="U29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="W29" s="1"/>
-      <c r="X29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
@@ -2189,266 +2350,246 @@
       <c r="AB30"/>
       <c r="AC30"/>
       <c r="AD30"/>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE30"/>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
-    <protectedRange name="pdb3bc525a9e3c1725fab43252b86a562" sqref="A11:AD11" password="C724"/>
-    <protectedRange name="p75da93d999328a7110a8d5c542da82c3" sqref="A12:AD12" password="C724"/>
-    <protectedRange name="p841c2ee68c66233d9a8ce077ae18de80" sqref="A13:AD13" password="C724"/>
-    <protectedRange name="p3f42c264c1b47faaebefef6883824d99" sqref="A14:AD14" password="C724"/>
-    <protectedRange name="p42136b58cc10e6d766425d418be530cc" sqref="A15:AD15" password="C724"/>
-    <protectedRange name="p8e0550e2ddd16baa15361cd2f04fa530" sqref="A16:AD16" password="C724"/>
-    <protectedRange name="pef7e800afbc306fde3365854cde4ea45" sqref="A17:AD17" password="C724"/>
-    <protectedRange name="p952cd7e6ac0163219c2e9b8542ad707b" sqref="A18:AD18" password="C724"/>
-    <protectedRange name="pf2164130af75eac66715128ee5441687" sqref="A19:AD19" password="C724"/>
-    <protectedRange name="p8ad549a42f22e7ac04e728fee26ce660" sqref="A20:AD20" password="C724"/>
-    <protectedRange name="p7ba4eec08741c895e18a7f4913f67851" sqref="A21:AD21" password="C724"/>
-    <protectedRange name="p1206079ff49db1d48fe5e579344b88da" sqref="A22:AD22" password="C724"/>
-    <protectedRange name="p93d6ff0b12b8cb2307b374a047776f55" sqref="A23:AD23" password="C724"/>
-    <protectedRange name="pe7ea69ca314ec34a6ddff3443f49a445" sqref="A24:AD24" password="C724"/>
-    <protectedRange name="p1a04db796bc80a7a66054504e51f1c94" sqref="A25:AD25" password="C724"/>
-    <protectedRange name="pc00a0da5b817c059414dbeab5faa3284" sqref="A26:AD26" password="C724"/>
-    <protectedRange name="p5b27a7250ae27157f6ddb66646187fe2" sqref="A27:AD27" password="C724"/>
-    <protectedRange name="p8cd79cece3cd2be740178fa755cb77cf" sqref="A28:AD28" password="C724"/>
-    <protectedRange name="p7875c9e8e9f11cd8214a30e2c0c4fd60" sqref="A29:AD29" password="C724"/>
+    <protectedRange name="p411fbdb1a335a9bb13861532652a4459" sqref="A11:AE11" password="C724"/>
+    <protectedRange name="pe2ab9d2f3305df9e1038c578a584c3f7" sqref="A12:AE12" password="C724"/>
+    <protectedRange name="p146c7db7c4c89f5a73004e07958c53d5" sqref="A13:AE13" password="C724"/>
+    <protectedRange name="ped1d181546acc2399661c6c40a9beb6a" sqref="A14:AE14" password="C724"/>
+    <protectedRange name="p0bef65a3b969817700b25eca80231809" sqref="A15:AE15" password="C724"/>
+    <protectedRange name="p3c3ae308d44e1437db7fec4ac824dcbe" sqref="A16:AE16" password="C724"/>
+    <protectedRange name="pbaf01c4f8129bac3b495ed6ce3d7a20d" sqref="A17:AE17" password="C724"/>
+    <protectedRange name="p1ed67d8fdcda9026ac46d214b4bd359f" sqref="A18:AE18" password="C724"/>
+    <protectedRange name="p91aa4b373289228480b772312167e8b1" sqref="A19:AE19" password="C724"/>
+    <protectedRange name="p79578f6982ac118ac396f49115536361" sqref="A20:AE20" password="C724"/>
+    <protectedRange name="p04e5167e000f3412892a0a6d88eaa380" sqref="A21:AE21" password="C724"/>
+    <protectedRange name="pa92ae8861d22f65476c5fc157c499054" sqref="A22:AE22" password="C724"/>
+    <protectedRange name="pd710f6020a662be45f43bbebee1a0a85" sqref="A23:AE23" password="C724"/>
+    <protectedRange name="p3002bf9e6fdaae719a4a5fd015a50ca4" sqref="A24:AE24" password="C724"/>
+    <protectedRange name="p8dfa80e9f3d51a22d980a49bae761b35" sqref="A25:AE25" password="C724"/>
+    <protectedRange name="pa8d2c86c80bebb4abb0dc0d902d1bfee" sqref="A26:AE26" password="C724"/>
+    <protectedRange name="pe6a07242bec00c7ba6716d5579186fd3" sqref="A27:AE27" password="C724"/>
+    <protectedRange name="p8643b3725d0b4d2e535d357863af8a39" sqref="A28:AE28" password="C724"/>
+    <protectedRange name="p45350b595c0d8754d63883c28f7ffdd5" sqref="A29:AE29" password="C724"/>
     <protectedRange name="p9e787ff799b736c16757db088c523f57" sqref="A32:AC32" password="C724"/>
     <protectedRange name="pcccc00a5a090a9880abb75a03cb781fd" sqref="A34:AC34" password="C724"/>
   </protectedRanges>
   <mergeCells>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AB12:AE12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AE15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AE26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
-  <si>
-    <t>PROGEN DIESEL TECH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+  <si>
+    <t>PROGEN Dieseltech Services Corp.</t>
   </si>
   <si>
     <t>Purok San Jose, Brgy. Calumangan, Bago City</t>
@@ -26,6 +26,9 @@
     <t>SUMMARY OF RECIEVED MATERIALS</t>
   </si>
   <si>
+    <t>Negros Occidental, Philippines 6101</t>
+  </si>
+  <si>
     <t>Tel. No. 476 - 7382</t>
   </si>
   <si>
@@ -35,9 +38,15 @@
     <t>TO</t>
   </si>
   <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
     <t>FROM</t>
   </si>
   <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
     <t>Warehouse</t>
   </si>
   <si>
@@ -50,69 +59,69 @@
     <t>Item Name</t>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Received Date</t>
+  </si>
+  <si>
+    <t>Dr No.</t>
+  </si>
+  <si>
+    <t>MRECF No.</t>
+  </si>
+  <si>
+    <t>PR No.</t>
+  </si>
+  <si>
+    <t>Item Part No.</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Total Qty Received</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>End Use</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>MrecF-2020-06-0002</t>
+  </si>
+  <si>
+    <t>PRO20-1002</t>
+  </si>
+  <si>
+    <t>PRO-PF 128-30C</t>
+  </si>
+  <si>
     <t>"Express" Union</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Received Date</t>
-  </si>
-  <si>
-    <t>Dr No.</t>
-  </si>
-  <si>
-    <t>MRECF No.</t>
-  </si>
-  <si>
-    <t>PR No.</t>
-  </si>
-  <si>
-    <t>Item Part No.</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Total Qty Received</t>
-  </si>
-  <si>
-    <t>UoM</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>End Use</t>
-  </si>
-  <si>
-    <t>2020-06-11</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>MrecF-2020-06-0002</t>
-  </si>
-  <si>
-    <t>PRO20-1002</t>
-  </si>
-  <si>
-    <t>PRO-PF 128-30C</t>
-  </si>
-  <si>
     <t>pc/s</t>
   </si>
   <si>
@@ -126,6 +135,304 @@
   </si>
   <si>
     <t>Progen Personnel &amp; Helper</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>MrecF-2020-05-0024</t>
+  </si>
+  <si>
+    <t>WHP20-1016</t>
+  </si>
+  <si>
+    <t>CON-FUE_1001</t>
+  </si>
+  <si>
+    <t>Diesel, Fuel-Save</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>RM Shell</t>
+  </si>
+  <si>
+    <t>Progen CV</t>
+  </si>
+  <si>
+    <t>Consumables / Cleaning &amp; Preservation of Spare parts</t>
+  </si>
+  <si>
+    <t>DG2 Main Engine Frame Cleaning and Preserving</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>MrecF-2020-05-0023</t>
+  </si>
+  <si>
+    <t>CON-HOU_1001</t>
+  </si>
+  <si>
+    <t>Rags, Cotton</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Procolors T-Shirts Printing</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>MrecF-2020-05-0017</t>
+  </si>
+  <si>
+    <t>EIC20-1006</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1001</t>
+  </si>
+  <si>
+    <t>Potential Transformer, Part Number: PTW4-2-75-722FF, Part ID: 109562</t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t>Ideal Electric</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>Replacement of Defective Generator Potential Transformer</t>
+  </si>
+  <si>
+    <t>DG2 Running Unit</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0016</t>
+  </si>
+  <si>
+    <t>WHP20-1000</t>
+  </si>
+  <si>
+    <t>CON-OFF_1016</t>
+  </si>
+  <si>
+    <t>Tape, Duct: Multi-Use, #2945, 1.88Inx45YD(48mmx41.1m)</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>Robinsons Handyman Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progen Warehouse
+</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0017</t>
+  </si>
+  <si>
+    <t>WHP20-1002</t>
+  </si>
+  <si>
+    <t>CON-HOU_1016</t>
+  </si>
+  <si>
+    <t>Plastic; Resealable#9, 7.75"x11", (1 pack=100 pcs)</t>
+  </si>
+  <si>
+    <t>pack/s</t>
+  </si>
+  <si>
+    <t>Bacolod Plastic Supply</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0014</t>
+  </si>
+  <si>
+    <t>Sum-ag Petron Gas Station</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0015</t>
+  </si>
+  <si>
+    <t>CON-HOU_1015</t>
+  </si>
+  <si>
+    <t>Stretch Film; 18 micron x 500mm x 300 mtrs</t>
+  </si>
+  <si>
+    <t>Ace Hardware Philippines, Inc. - Bacolod Branch</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0007</t>
+  </si>
+  <si>
+    <t>PROGEN-004-2019</t>
+  </si>
+  <si>
+    <t>CON-CON_1003</t>
+  </si>
+  <si>
+    <t>Sand Paper, G120</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0008</t>
+  </si>
+  <si>
+    <t>CON-CON_1019</t>
+  </si>
+  <si>
+    <t>Thinner; Lacquer, Brand: CES/ML</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0009</t>
+  </si>
+  <si>
+    <t>WHP20-1001</t>
+  </si>
+  <si>
+    <t>CON-CON_1001</t>
+  </si>
+  <si>
+    <t>Scraper, Industrial; Size: 2"</t>
+  </si>
+  <si>
+    <t>Dismantling, cleaning, inspection, crack testing, measurement &amp; evaluation, reassembling &amp; preservation.</t>
+  </si>
+  <si>
+    <t>DG4 (CV Area) Main Engine Parts &amp; Components</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0010</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0011</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0012</t>
+  </si>
+  <si>
+    <t>CON-HOU_1005</t>
+  </si>
+  <si>
+    <t>Gloves, Cotton with Rubber</t>
+  </si>
+  <si>
+    <t>pair/s</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0013</t>
+  </si>
+  <si>
+    <t>WHP20-1003</t>
+  </si>
+  <si>
+    <t>Visayan Construction Supply</t>
+  </si>
+  <si>
+    <t>DG1 (CV Area) Main Engine Parts &amp; Components.</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0003</t>
+  </si>
+  <si>
+    <t>PROGEN-006-2019</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0004</t>
+  </si>
+  <si>
+    <t>CON-CON_1002</t>
+  </si>
+  <si>
+    <t>Paint Brush 1"</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0005</t>
+  </si>
+  <si>
+    <t>CON-HOU_1003</t>
+  </si>
+  <si>
+    <t>Gloves, Cotton</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0006</t>
+  </si>
+  <si>
+    <t>PROGEN-011-2019</t>
+  </si>
+  <si>
+    <t>CON-CON_1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealant; Super Vulcaseal, </t>
+  </si>
+  <si>
+    <t>Equipment @ CV yard</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0002</t>
+  </si>
+  <si>
+    <t>CON-HOU_1006</t>
+  </si>
+  <si>
+    <t>Soap, liquid</t>
+  </si>
+  <si>
+    <t>TMVG Multi-Sales, Inc.</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>MrecF-2020-03-0001</t>
+  </si>
+  <si>
+    <t>PROGEN-008-2019</t>
+  </si>
+  <si>
+    <t>CON-FUE_1002</t>
+  </si>
+  <si>
+    <t>Penetrating Oil Multi Use, WD40</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>C.Y. Ong Multi-Distributor</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -223,14 +530,6 @@
       </left>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -247,6 +546,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -329,11 +636,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1104900" cy="333375"/>
+    <xdr:ext cx="714375" cy="714375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
@@ -649,7 +956,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -690,7 +997,7 @@
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
-      <c r="AE1" s="9"/>
+      <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="7"/>
@@ -727,143 +1034,180 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
-      <c r="AE2" s="10"/>
+      <c r="AE2" s="9"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="11"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="7"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="10"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="G5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -874,25 +1218,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -902,7 +1246,7 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="2">
         <v>200</v>
@@ -911,85 +1255,1365 @@
         <v>400</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1023</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>27.83</v>
+      </c>
+      <c r="R12" s="2">
+        <v>556.6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1022</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>50</v>
+      </c>
+      <c r="R13" s="2">
+        <v>500</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" t="s">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1017</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>700</v>
+      </c>
+      <c r="R15" s="2">
+        <v>700</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>1018</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>240</v>
+      </c>
+      <c r="R16" s="2">
+        <v>240</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2">
+        <v>15</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>35.15</v>
+      </c>
+      <c r="R17" s="2">
+        <v>527.25</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1014</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>659.75</v>
+      </c>
+      <c r="R18" s="2">
+        <v>659.75</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2">
+        <v>100</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>14</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>240</v>
+      </c>
+      <c r="R20" s="2">
+        <v>240</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="R21" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>14</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1009</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>50</v>
+      </c>
+      <c r="R23" s="2">
+        <v>250</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>32</v>
+      </c>
+      <c r="R24" s="2">
+        <v>96</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>220</v>
+      </c>
+      <c r="R25" s="2">
+        <v>220</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>106</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>32</v>
+      </c>
+      <c r="R26" s="2">
+        <v>160</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>6</v>
+      </c>
+      <c r="R27" s="2">
+        <v>30</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2">
+        <v>6</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>11.45</v>
+      </c>
+      <c r="R28" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>460</v>
+      </c>
+      <c r="R29" s="2">
+        <v>460</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>280</v>
+      </c>
+      <c r="R30" s="2">
+        <v>280</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>210</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1050</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
     <protectedRange name="p411fbdb1a335a9bb13861532652a4459" sqref="A11:AE11" password="C724"/>
-    <protectedRange name="pb92778bd78a4353a4ab9294156805e41" sqref="A14:AC14" password="C724"/>
-    <protectedRange name="p3a834472df22454fed33e8b780f2ec25" sqref="A16:AC16" password="C724"/>
+    <protectedRange name="pe2ab9d2f3305df9e1038c578a584c3f7" sqref="A12:AE12" password="C724"/>
+    <protectedRange name="p146c7db7c4c89f5a73004e07958c53d5" sqref="A13:AE13" password="C724"/>
+    <protectedRange name="ped1d181546acc2399661c6c40a9beb6a" sqref="A14:AE14" password="C724"/>
+    <protectedRange name="p0bef65a3b969817700b25eca80231809" sqref="A15:AE15" password="C724"/>
+    <protectedRange name="p3c3ae308d44e1437db7fec4ac824dcbe" sqref="A16:AE16" password="C724"/>
+    <protectedRange name="pbaf01c4f8129bac3b495ed6ce3d7a20d" sqref="A17:AE17" password="C724"/>
+    <protectedRange name="p1ed67d8fdcda9026ac46d214b4bd359f" sqref="A18:AE18" password="C724"/>
+    <protectedRange name="p91aa4b373289228480b772312167e8b1" sqref="A19:AE19" password="C724"/>
+    <protectedRange name="p79578f6982ac118ac396f49115536361" sqref="A20:AE20" password="C724"/>
+    <protectedRange name="p04e5167e000f3412892a0a6d88eaa380" sqref="A21:AE21" password="C724"/>
+    <protectedRange name="pa92ae8861d22f65476c5fc157c499054" sqref="A22:AE22" password="C724"/>
+    <protectedRange name="pd710f6020a662be45f43bbebee1a0a85" sqref="A23:AE23" password="C724"/>
+    <protectedRange name="p3002bf9e6fdaae719a4a5fd015a50ca4" sqref="A24:AE24" password="C724"/>
+    <protectedRange name="p8dfa80e9f3d51a22d980a49bae761b35" sqref="A25:AE25" password="C724"/>
+    <protectedRange name="pa8d2c86c80bebb4abb0dc0d902d1bfee" sqref="A26:AE26" password="C724"/>
+    <protectedRange name="pe6a07242bec00c7ba6716d5579186fd3" sqref="A27:AE27" password="C724"/>
+    <protectedRange name="p8643b3725d0b4d2e535d357863af8a39" sqref="A28:AE28" password="C724"/>
+    <protectedRange name="p45350b595c0d8754d63883c28f7ffdd5" sqref="A29:AE29" password="C724"/>
+    <protectedRange name="p77e6a5fdf238dd09714e117e8c2acb49" sqref="A30:AE30" password="C724"/>
+    <protectedRange name="p18fdcf942e0168d1293184e34615a1ec" sqref="A31:AE31" password="C724"/>
+    <protectedRange name="pcccc00a5a090a9880abb75a03cb781fd" sqref="A34:AC34" password="C724"/>
+    <protectedRange name="p1de869adbbac5d504fd765076189476f" sqref="A36:AC36" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B11:C11"/>
@@ -1010,6 +2634,186 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB11:AE11"/>
     <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AE32"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>PROGEN Dieseltech Services Corp.</t>
   </si>
@@ -35,16 +35,16 @@
     <t>Period Covered:</t>
   </si>
   <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
     <t>TO</t>
   </si>
   <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
+    <t>2021-07-05</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -71,7 +71,7 @@
     <t>DR No.</t>
   </si>
   <si>
-    <t>MRECF No.</t>
+    <t>MRIF No.</t>
   </si>
   <si>
     <t>PR No.</t>
@@ -240,6 +240,217 @@
   </si>
   <si>
     <t>Engine Parts</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0008</t>
+  </si>
+  <si>
+    <t>WHP20-1061 / PROGEN-047-2020</t>
+  </si>
+  <si>
+    <t>CON-CON_1009</t>
+  </si>
+  <si>
+    <t>Nails, Common, 4"</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>Progen Warehouse</t>
+  </si>
+  <si>
+    <t>Fabrication of Crates</t>
+  </si>
+  <si>
+    <t>36 Units SEMT Pielstick PC2-5 Cylinder Head Assembly</t>
+  </si>
+  <si>
+    <t>CON-CON_1010</t>
+  </si>
+  <si>
+    <t>Nails, Common, 3"</t>
+  </si>
+  <si>
+    <t>CON-CON_1012</t>
+  </si>
+  <si>
+    <t>Nails; Common, 1 1/2"</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>PO1002</t>
+  </si>
+  <si>
+    <t>DR1003</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0007</t>
+  </si>
+  <si>
+    <t>EIC20-1006</t>
+  </si>
+  <si>
+    <t>PRO-PF 128-30C</t>
+  </si>
+  <si>
+    <t>"Express" Union</t>
+  </si>
+  <si>
+    <t>88 Electronics Supply</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>Replacement of Defective Generator Potential Transformer</t>
+  </si>
+  <si>
+    <t>DG2 Running Unit</t>
+  </si>
+  <si>
+    <t>POTTTT</t>
+  </si>
+  <si>
+    <t>DRTTTT</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0006</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>PO1001</t>
+  </si>
+  <si>
+    <t>DR1002</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0005</t>
+  </si>
+  <si>
+    <t>PO123</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0004</t>
+  </si>
+  <si>
+    <t>DRT1001</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0002</t>
+  </si>
+  <si>
+    <t>WHP20-1041 / PROGEN-031-2020</t>
+  </si>
+  <si>
+    <t>CON-CON_1013</t>
+  </si>
+  <si>
+    <t>Lumber; Good, 2" x 3" x 10 ft, Mahogany</t>
+  </si>
+  <si>
+    <t>lgth/s</t>
+  </si>
+  <si>
+    <t>Khaiyen and Khaila Lumber Merchandising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progen Warehouse
+</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0001</t>
+  </si>
+  <si>
+    <t>begbal</t>
+  </si>
+  <si>
+    <t>begbal123119</t>
+  </si>
+  <si>
+    <t>MrecF-2020-07-0036</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1082</t>
+  </si>
+  <si>
+    <t>Ball Bearing, 5206</t>
+  </si>
+  <si>
+    <t>Progen</t>
+  </si>
+  <si>
+    <t>Inventory Beginning Balance</t>
+  </si>
+  <si>
+    <t>Warehouse Beginning Balance</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1044</t>
+  </si>
+  <si>
+    <t>High Heat Packing, 2.6 m</t>
+  </si>
+  <si>
+    <t>mtr/s</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1045</t>
+  </si>
+  <si>
+    <t>High Heat Packing, 4.8</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1083</t>
+  </si>
+  <si>
+    <t>Packing, SJ-3052002</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1084</t>
+  </si>
+  <si>
+    <t>Fabrication Ring, 73x88x4mm</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1085</t>
+  </si>
+  <si>
+    <t>Bush, WE-17168</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1088</t>
+  </si>
+  <si>
+    <t>Cambire Tubing, 1 1/6x1mm, ISL-09/E</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1089</t>
+  </si>
+  <si>
+    <t>Spring Collar_Aux</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1056</t>
+  </si>
+  <si>
+    <t>3 way Valve w/o Bolt</t>
+  </si>
+  <si>
+    <t>AUX-PAR_1057</t>
+  </si>
+  <si>
+    <t>3 way Valve, Complete</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -763,7 +974,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -1399,55 +1610,1408 @@
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="2">
+        <v>51</v>
+      </c>
+      <c r="S17" s="2">
+        <v>102</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="2">
+        <v>52</v>
+      </c>
+      <c r="S18" s="2">
+        <v>104</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" t="s">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" t="s">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1100</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5500</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="2">
+        <v>5500</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>12344</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" s="2">
+        <v>275</v>
+      </c>
+      <c r="S24" s="2">
+        <v>2750</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1092883001</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="R25" s="2">
+        <v>51</v>
+      </c>
+      <c r="S25" s="2">
+        <v>153</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1092883001</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="2">
+        <v>52</v>
+      </c>
+      <c r="S26" s="2">
+        <v>156</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1092883001</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="2">
+        <v>57</v>
+      </c>
+      <c r="S27" s="2">
+        <v>171</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +3023,29 @@
     <protectedRange name="ped1d181546acc2399661c6c40a9beb6a" sqref="A14:AE14" password="C724"/>
     <protectedRange name="p0bef65a3b969817700b25eca80231809" sqref="A15:AE15" password="C724"/>
     <protectedRange name="p3c3ae308d44e1437db7fec4ac824dcbe" sqref="A16:AE16" password="C724"/>
-    <protectedRange name="pcb0e4452152caf01f2ddcab59aa774ed" sqref="A19:AC19" password="C724"/>
-    <protectedRange name="p19f680c13282bb793df96480af2f729d" sqref="A21:AC21" password="C724"/>
+    <protectedRange name="pbaf01c4f8129bac3b495ed6ce3d7a20d" sqref="A17:AE17" password="C724"/>
+    <protectedRange name="p1ed67d8fdcda9026ac46d214b4bd359f" sqref="A18:AE18" password="C724"/>
+    <protectedRange name="p91aa4b373289228480b772312167e8b1" sqref="A19:AE19" password="C724"/>
+    <protectedRange name="p79578f6982ac118ac396f49115536361" sqref="A20:AE20" password="C724"/>
+    <protectedRange name="p04e5167e000f3412892a0a6d88eaa380" sqref="A21:AE21" password="C724"/>
+    <protectedRange name="pa92ae8861d22f65476c5fc157c499054" sqref="A22:AE22" password="C724"/>
+    <protectedRange name="pd710f6020a662be45f43bbebee1a0a85" sqref="A23:AE23" password="C724"/>
+    <protectedRange name="p3002bf9e6fdaae719a4a5fd015a50ca4" sqref="A24:AE24" password="C724"/>
+    <protectedRange name="p8dfa80e9f3d51a22d980a49bae761b35" sqref="A25:AE25" password="C724"/>
+    <protectedRange name="pa8d2c86c80bebb4abb0dc0d902d1bfee" sqref="A26:AE26" password="C724"/>
+    <protectedRange name="pe6a07242bec00c7ba6716d5579186fd3" sqref="A27:AE27" password="C724"/>
+    <protectedRange name="p8643b3725d0b4d2e535d357863af8a39" sqref="A28:AE28" password="C724"/>
+    <protectedRange name="p45350b595c0d8754d63883c28f7ffdd5" sqref="A29:AE29" password="C724"/>
+    <protectedRange name="p77e6a5fdf238dd09714e117e8c2acb49" sqref="A30:AE30" password="C724"/>
+    <protectedRange name="p18fdcf942e0168d1293184e34615a1ec" sqref="A31:AE31" password="C724"/>
+    <protectedRange name="p410b9789ed25eb34f9ad78aac5a2ed2d" sqref="A32:AE32" password="C724"/>
+    <protectedRange name="p7bd3dcfc8a10f9a644dd2a6e35982bb2" sqref="A33:AE33" password="C724"/>
+    <protectedRange name="pe8329c99845ea238af48d4512d666691" sqref="A34:AE34" password="C724"/>
+    <protectedRange name="p86a4a316b057ddb81b5024b6ef857988" sqref="A35:AE35" password="C724"/>
+    <protectedRange name="p4f51242f7a36c8246a5ae87929c2654c" sqref="A36:AE36" password="C724"/>
+    <protectedRange name="p8fc0de0a3f287e74fc3cfe5ab7e59080" sqref="A37:AE37" password="C724"/>
+    <protectedRange name="p4ea49a633419ed419223f7cc46524d61" sqref="A40:AC40" password="C724"/>
+    <protectedRange name="p6e8a97efe9ad26b81933796f0d6174b1" sqref="A42:AC42" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B12:C12"/>
@@ -1525,6 +3110,195 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>PROGEN Dieseltech Services Corp.</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FROM</t>
   </si>
   <si>
-    <t>2020-12-31</t>
+    <t>2021-01-01</t>
   </si>
   <si>
     <t>TO</t>
   </si>
   <si>
-    <t>2021-07-05</t>
+    <t>2021-07-30</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -107,262 +107,181 @@
     <t>End Use</t>
   </si>
   <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>sample100</t>
-  </si>
-  <si>
-    <t>MRIF-2021-06-0019</t>
-  </si>
-  <si>
-    <t>sample1001</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1294</t>
-  </si>
-  <si>
-    <t>Key, SJ6-G9</t>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>MRIF-2021-06-0017</t>
+  </si>
+  <si>
+    <t>ECMG20-1021</t>
+  </si>
+  <si>
+    <t>K 27046 B</t>
+  </si>
+  <si>
+    <t>(BIG) Tubular Sealing for Cover K 27007 and Bearing Casing K 28001</t>
+  </si>
+  <si>
+    <t>7-Eleven, LLARC Convenience Store</t>
+  </si>
+  <si>
+    <t>ECMG</t>
+  </si>
+  <si>
+    <t>Equipment for Engine Parts Thickness Gauge Measurement</t>
+  </si>
+  <si>
+    <t>Engine Parts</t>
+  </si>
+  <si>
+    <t>PRO-PF 128-30C</t>
+  </si>
+  <si>
+    <t>"Express" Union</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>A.C. Parts Merchandising</t>
-  </si>
-  <si>
-    <t>Bacolod HR</t>
-  </si>
-  <si>
-    <t>Auto Start/Stop of Deep Well Pump Refill to Raw Water Tank</t>
-  </si>
-  <si>
-    <t>4 Units Cylinder Head (Bare) for CPGC</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>MRIF-2021-06-0018</t>
-  </si>
-  <si>
-    <t>Test sAmple</t>
-  </si>
-  <si>
-    <t>K 47224</t>
-  </si>
-  <si>
-    <t>3-way Valve, Complete</t>
+    <t>MRIF-2021-06-0016</t>
+  </si>
+  <si>
+    <t>EIC20-1024</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>DG5</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0014</t>
   </si>
   <si>
     <t>2GO Express</t>
   </si>
   <si>
-    <t>ECMG</t>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0008</t>
+  </si>
+  <si>
+    <t>WHP20-1061 / PROGEN-047-2020</t>
+  </si>
+  <si>
+    <t>CON-CON_1009</t>
+  </si>
+  <si>
+    <t>Nails, Common, 4"</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>Progen Warehouse</t>
+  </si>
+  <si>
+    <t>Fabrication of Crates</t>
+  </si>
+  <si>
+    <t>36 Units SEMT Pielstick PC2-5 Cylinder Head Assembly</t>
+  </si>
+  <si>
+    <t>CON-CON_1010</t>
+  </si>
+  <si>
+    <t>Nails, Common, 3"</t>
+  </si>
+  <si>
+    <t>CON-CON_1012</t>
+  </si>
+  <si>
+    <t>Nails; Common, 1 1/2"</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>PO1002</t>
+  </si>
+  <si>
+    <t>DR1003</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0007</t>
+  </si>
+  <si>
+    <t>EIC20-1006</t>
+  </si>
+  <si>
+    <t>88 Electronics Supply</t>
+  </si>
+  <si>
+    <t>Replacement of Defective Generator Potential Transformer</t>
+  </si>
+  <si>
+    <t>DG2 Running Unit</t>
+  </si>
+  <si>
+    <t>POTTTT</t>
+  </si>
+  <si>
+    <t>DRTTTT</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0006</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>PO1001</t>
+  </si>
+  <si>
+    <t>DR1002</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0005</t>
+  </si>
+  <si>
+    <t>PO123</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0004</t>
+  </si>
+  <si>
+    <t>DRT1001</t>
+  </si>
+  <si>
+    <t>MrecF-2021-01-0002</t>
+  </si>
+  <si>
+    <t>WHP20-1041 / PROGEN-031-2020</t>
+  </si>
+  <si>
+    <t>CON-CON_1013</t>
+  </si>
+  <si>
+    <t>Lumber; Good, 2" x 3" x 10 ft, Mahogany</t>
+  </si>
+  <si>
+    <t>lgth/s</t>
+  </si>
+  <si>
+    <t>Khaiyen and Khaila Lumber Merchandising</t>
   </si>
   <si>
     <t>Progen Consumables</t>
-  </si>
-  <si>
-    <t>DG2 Main Engine Frame Cleaning and Preserving</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0017</t>
-  </si>
-  <si>
-    <t>sample-2001-2021</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation</t>
-  </si>
-  <si>
-    <t>Environment/PCO</t>
-  </si>
-  <si>
-    <t>Additional Padlock for Reconditioning Equipment Tool Cabinet</t>
-  </si>
-  <si>
-    <t>125 Vdc Battery Charger</t>
-  </si>
-  <si>
-    <t>sample-1050-20212</t>
-  </si>
-  <si>
-    <t>sample-1050-20211</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0016</t>
-  </si>
-  <si>
-    <t>sample-1001-2021</t>
-  </si>
-  <si>
-    <t>K 27046 B</t>
-  </si>
-  <si>
-    <t>(BIG) Tubular Sealing for Cover K 27007 and Bearing Casing K 28001</t>
-  </si>
-  <si>
-    <t>7-Eleven, LLARC Convenience Store</t>
-  </si>
-  <si>
-    <t>Additional Sludge Recovery Storage</t>
-  </si>
-  <si>
-    <t>12 Units Connecting Rod Assembly and 12 Units Piston Assembly</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0015</t>
-  </si>
-  <si>
-    <t>K 47034</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0014</t>
-  </si>
-  <si>
-    <t>ECMG20-1021</t>
-  </si>
-  <si>
-    <t>Equipment for Engine Parts Thickness Gauge Measurement</t>
-  </si>
-  <si>
-    <t>Engine Parts</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0008</t>
-  </si>
-  <si>
-    <t>WHP20-1061 / PROGEN-047-2020</t>
-  </si>
-  <si>
-    <t>CON-CON_1009</t>
-  </si>
-  <si>
-    <t>Nails, Common, 4"</t>
-  </si>
-  <si>
-    <t>kg/s</t>
-  </si>
-  <si>
-    <t>Greenlane Hardware and Construction Supply Inc</t>
-  </si>
-  <si>
-    <t>Progen Warehouse</t>
-  </si>
-  <si>
-    <t>Fabrication of Crates</t>
-  </si>
-  <si>
-    <t>36 Units SEMT Pielstick PC2-5 Cylinder Head Assembly</t>
-  </si>
-  <si>
-    <t>CON-CON_1010</t>
-  </si>
-  <si>
-    <t>Nails, Common, 3"</t>
-  </si>
-  <si>
-    <t>CON-CON_1012</t>
-  </si>
-  <si>
-    <t>Nails; Common, 1 1/2"</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>PO1002</t>
-  </si>
-  <si>
-    <t>DR1003</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0007</t>
-  </si>
-  <si>
-    <t>EIC20-1006</t>
-  </si>
-  <si>
-    <t>PRO-PF 128-30C</t>
-  </si>
-  <si>
-    <t>"Express" Union</t>
-  </si>
-  <si>
-    <t>88 Electronics Supply</t>
-  </si>
-  <si>
-    <t>EIC</t>
-  </si>
-  <si>
-    <t>Replacement of Defective Generator Potential Transformer</t>
-  </si>
-  <si>
-    <t>DG2 Running Unit</t>
-  </si>
-  <si>
-    <t>POTTTT</t>
-  </si>
-  <si>
-    <t>DRTTTT</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0006</t>
-  </si>
-  <si>
-    <t>2021-01-06</t>
-  </si>
-  <si>
-    <t>PO1001</t>
-  </si>
-  <si>
-    <t>DR1002</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0005</t>
-  </si>
-  <si>
-    <t>PO123</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0004</t>
-  </si>
-  <si>
-    <t>DRT1001</t>
-  </si>
-  <si>
-    <t>MrecF-2021-01-0002</t>
-  </si>
-  <si>
-    <t>WHP20-1041 / PROGEN-031-2020</t>
-  </si>
-  <si>
-    <t>CON-CON_1013</t>
-  </si>
-  <si>
-    <t>Lumber; Good, 2" x 3" x 10 ft, Mahogany</t>
-  </si>
-  <si>
-    <t>lgth/s</t>
-  </si>
-  <si>
-    <t>Khaiyen and Khaila Lumber Merchandising</t>
   </si>
   <si>
     <t xml:space="preserve">Progen Warehouse
@@ -370,87 +289,6 @@
   </si>
   <si>
     <t>MrecF-2021-01-0001</t>
-  </si>
-  <si>
-    <t>begbal</t>
-  </si>
-  <si>
-    <t>begbal123119</t>
-  </si>
-  <si>
-    <t>MrecF-2020-07-0036</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1082</t>
-  </si>
-  <si>
-    <t>Ball Bearing, 5206</t>
-  </si>
-  <si>
-    <t>Progen</t>
-  </si>
-  <si>
-    <t>Inventory Beginning Balance</t>
-  </si>
-  <si>
-    <t>Warehouse Beginning Balance</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1044</t>
-  </si>
-  <si>
-    <t>High Heat Packing, 2.6 m</t>
-  </si>
-  <si>
-    <t>mtr/s</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1045</t>
-  </si>
-  <si>
-    <t>High Heat Packing, 4.8</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1083</t>
-  </si>
-  <si>
-    <t>Packing, SJ-3052002</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1084</t>
-  </si>
-  <si>
-    <t>Fabrication Ring, 73x88x4mm</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1085</t>
-  </si>
-  <si>
-    <t>Bush, WE-17168</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1088</t>
-  </si>
-  <si>
-    <t>Cambire Tubing, 1 1/6x1mm, ISL-09/E</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1089</t>
-  </si>
-  <si>
-    <t>Spring Collar_Aux</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1056</t>
-  </si>
-  <si>
-    <t>3 way Valve w/o Bolt</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1057</t>
-  </si>
-  <si>
-    <t>3 way Valve, Complete</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -974,7 +812,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -1241,59 +1079,57 @@
         <v>30</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>234567</v>
+      </c>
+      <c r="E11" s="1">
+        <v>79445</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2">
-        <v>1001</v>
+        <v>600</v>
       </c>
       <c r="S11" s="2">
-        <v>100100</v>
+        <v>3000</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -1303,60 +1139,62 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
+      <c r="D12" s="1">
+        <v>234567</v>
+      </c>
+      <c r="E12" s="1">
+        <v>79445</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="R12" s="2">
-        <v>2344</v>
+        <v>400</v>
       </c>
       <c r="S12" s="2">
-        <v>53912</v>
+        <v>2400</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -1366,60 +1204,60 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>4512</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>1234</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2">
-        <v>1101</v>
+        <v>500</v>
       </c>
       <c r="S13" s="2">
-        <v>110100</v>
+        <v>1000</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -1429,60 +1267,62 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
+      <c r="D14" s="1">
+        <v>4512</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1234</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="R14" s="2">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="S14" s="2">
-        <v>22000</v>
+        <v>900</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -1492,60 +1332,56 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="S15" s="2">
-        <v>50050</v>
+        <v>1000</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -1555,56 +1391,58 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="R16" s="2">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S16" s="2">
-        <v>1000</v>
+        <v>102</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -1614,25 +1452,25 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1641,31 +1479,31 @@
         <v>2</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R17" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S17" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -1675,58 +1513,58 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R18" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -1736,58 +1574,62 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="R19" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -1797,62 +1639,62 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R20" s="2">
         <v>1000</v>
       </c>
       <c r="S20" s="2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -1862,29 +1704,29 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1893,31 +1735,31 @@
         <v>5</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R21" s="2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S21" s="2">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -1927,29 +1769,29 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1007</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1958,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R22" s="2">
         <v>1100</v>
@@ -1967,22 +1809,22 @@
         <v>5500</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -1992,62 +1834,62 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1007</v>
+      <c r="D23" s="1">
+        <v>12344</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="R23" s="2">
-        <v>1100</v>
+        <v>275</v>
       </c>
       <c r="S23" s="2">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -2057,62 +1899,62 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>12344</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>10000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1092883001</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="R24" s="2">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="S24" s="2">
-        <v>2750</v>
+        <v>153</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -2122,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -2132,19 +1974,19 @@
         <v>1092883001</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2153,31 +1995,31 @@
         <v>3</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R25" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S25" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -2187,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -2197,19 +2039,19 @@
         <v>1092883001</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2218,800 +2060,85 @@
         <v>3</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R26" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S26" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="1">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1092883001</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R27" s="2">
-        <v>57</v>
-      </c>
-      <c r="S27" s="2">
-        <v>171</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="1">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="1">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="1">
-        <v>24</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1">
-        <v>26</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="1">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" t="s">
-        <v>150</v>
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3033,19 +2160,8 @@
     <protectedRange name="p3002bf9e6fdaae719a4a5fd015a50ca4" sqref="A24:AE24" password="C724"/>
     <protectedRange name="p8dfa80e9f3d51a22d980a49bae761b35" sqref="A25:AE25" password="C724"/>
     <protectedRange name="pa8d2c86c80bebb4abb0dc0d902d1bfee" sqref="A26:AE26" password="C724"/>
-    <protectedRange name="pe6a07242bec00c7ba6716d5579186fd3" sqref="A27:AE27" password="C724"/>
-    <protectedRange name="p8643b3725d0b4d2e535d357863af8a39" sqref="A28:AE28" password="C724"/>
-    <protectedRange name="p45350b595c0d8754d63883c28f7ffdd5" sqref="A29:AE29" password="C724"/>
-    <protectedRange name="p77e6a5fdf238dd09714e117e8c2acb49" sqref="A30:AE30" password="C724"/>
-    <protectedRange name="p18fdcf942e0168d1293184e34615a1ec" sqref="A31:AE31" password="C724"/>
-    <protectedRange name="p410b9789ed25eb34f9ad78aac5a2ed2d" sqref="A32:AE32" password="C724"/>
-    <protectedRange name="p7bd3dcfc8a10f9a644dd2a6e35982bb2" sqref="A33:AE33" password="C724"/>
-    <protectedRange name="pe8329c99845ea238af48d4512d666691" sqref="A34:AE34" password="C724"/>
-    <protectedRange name="p86a4a316b057ddb81b5024b6ef857988" sqref="A35:AE35" password="C724"/>
-    <protectedRange name="p4f51242f7a36c8246a5ae87929c2654c" sqref="A36:AE36" password="C724"/>
-    <protectedRange name="p8fc0de0a3f287e74fc3cfe5ab7e59080" sqref="A37:AE37" password="C724"/>
-    <protectedRange name="p4ea49a633419ed419223f7cc46524d61" sqref="A40:AC40" password="C724"/>
-    <protectedRange name="p6e8a97efe9ad26b81933796f0d6174b1" sqref="A42:AC42" password="C724"/>
+    <protectedRange name="pb2fbe0634f6ba582462d5b451e1c6da7" sqref="A29:AC29" password="C724"/>
+    <protectedRange name="p63cbd41aa125ccde14f86be5bc298caa" sqref="A31:AC31" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B12:C12"/>
@@ -3200,105 +2316,6 @@
     <mergeCell ref="X27:Y27"/>
     <mergeCell ref="Z27:AB27"/>
     <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>

--- a/Received Report.xlsx
+++ b/Received Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>PROGEN Dieseltech Services Corp.</t>
   </si>
@@ -38,13 +38,13 @@
     <t>FROM</t>
   </si>
   <si>
-    <t>2021-04-02</t>
+    <t>2021-05-01</t>
   </si>
   <si>
     <t>TO</t>
   </si>
   <si>
-    <t>2021-07-05</t>
+    <t>2021-05-31</t>
   </si>
   <si>
     <t>Warehouse</t>
@@ -107,139 +107,343 @@
     <t>End Use</t>
   </si>
   <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>sample100</t>
-  </si>
-  <si>
-    <t>MRIF-2021-06-0019</t>
-  </si>
-  <si>
-    <t>sample1001</t>
-  </si>
-  <si>
-    <t>AUX-PAR_1294</t>
-  </si>
-  <si>
-    <t>Key, SJ6-G9</t>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>PIPRO21-1137-1655-PRGN</t>
+  </si>
+  <si>
+    <t>1652-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0292</t>
+  </si>
+  <si>
+    <t>IPRO21-1137-PRGN / PROPR-BCD21-106</t>
+  </si>
+  <si>
+    <t>CON-CHE_1017</t>
+  </si>
+  <si>
+    <t>Gasoline, Unleaded</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>Sum-ag Petron Gas Station</t>
+  </si>
+  <si>
+    <t>ECMG</t>
+  </si>
+  <si>
+    <t>Consumables of Cleaning and Clearing</t>
+  </si>
+  <si>
+    <t>Progen Spare Parts</t>
+  </si>
+  <si>
+    <t>PWHP21-1136-1653-PRGN</t>
+  </si>
+  <si>
+    <t>1650-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0291</t>
+  </si>
+  <si>
+    <t>WHP21-1136-PRGN / PROPR-BCD21-105</t>
+  </si>
+  <si>
+    <t>CON-FUE_1001</t>
+  </si>
+  <si>
+    <t>Diesel, Fuel-Save</t>
+  </si>
+  <si>
+    <t>Progen Warehouse</t>
+  </si>
+  <si>
+    <t>Refuel for Heavy Equipment</t>
+  </si>
+  <si>
+    <t>Heavy Equipment - Forklift</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>PIPRO21-1135-1652-PRGN</t>
+  </si>
+  <si>
+    <t>1649-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0290</t>
+  </si>
+  <si>
+    <t>IPRO21-1135-PRGN / PROPR-BCD21-104</t>
+  </si>
+  <si>
+    <t>CON-CON_1060</t>
+  </si>
+  <si>
+    <t>Thinner, Acrylic</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>Bacolod Luis Paint Center Enterprises</t>
+  </si>
+  <si>
+    <t>Consumables for Reconditioning and Painting</t>
+  </si>
+  <si>
+    <t>DG1 (CV Area) Main Engine Parts &amp; Components.</t>
+  </si>
+  <si>
+    <t>PIPRO21-1134-1651-PRGN</t>
+  </si>
+  <si>
+    <t>1648-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0289</t>
+  </si>
+  <si>
+    <t>IPRO21-1134-PRGN / PROPR-BCD21-103</t>
+  </si>
+  <si>
+    <t>Progen CV Area</t>
+  </si>
+  <si>
+    <t>PIPRO21-1134-1650-PRGN</t>
+  </si>
+  <si>
+    <t>1647-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0288</t>
+  </si>
+  <si>
+    <t>PIPRO21-1134-1649-PRGN</t>
+  </si>
+  <si>
+    <t>1646-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0287</t>
+  </si>
+  <si>
+    <t>CON-HOU_1003</t>
+  </si>
+  <si>
+    <t>Gloves, Cotton</t>
+  </si>
+  <si>
+    <t>pair/s</t>
+  </si>
+  <si>
+    <t>Greenlane Hardware and Construction Supply Inc</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>POPE21-1039-1056-PRGN-MNL-R1</t>
+  </si>
+  <si>
+    <t>DR-PROGENMNL-005</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0286</t>
+  </si>
+  <si>
+    <t>OPE21-1039-PRGN-MNL / PROPR-BCD21-030</t>
+  </si>
+  <si>
+    <t>CON-CHE_1006</t>
+  </si>
+  <si>
+    <t>Crack Detector, Cleaner, Spotcheck, SKC-S Aerosol</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>Cifra Marketing Corporation</t>
+  </si>
+  <si>
+    <t>Additional Consumables for Refurbishing/Reconditioning</t>
+  </si>
+  <si>
+    <t>18 Units Valve Gear Assembly</t>
+  </si>
+  <si>
+    <t>CON-CHE_1007</t>
+  </si>
+  <si>
+    <t>Crack Detector, Developer, Spotcheck, SKD-S2</t>
+  </si>
+  <si>
+    <t>CON-CHE_1008</t>
+  </si>
+  <si>
+    <t>Crack Detector, Penetrant, Spotcheck, SKL-SP2</t>
+  </si>
+  <si>
+    <t>PWHP21-1032-1049-PRGN-MNL-R1</t>
+  </si>
+  <si>
+    <t>DR-PROGENMNL-004</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0285</t>
+  </si>
+  <si>
+    <t>WHP21-1032-PRGN-MNL / PROGEN-071-2020</t>
+  </si>
+  <si>
+    <t>Consumables for Refurbishing  / Reconditioning</t>
+  </si>
+  <si>
+    <t>Refurbishing of 36 units Cylinder Liner with Water Jacket</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>PIPRO21-1133-1648-PRGN</t>
+  </si>
+  <si>
+    <t>1645-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0284</t>
+  </si>
+  <si>
+    <t>IPRO21-1133-PRGN / PROPR-BCD21-091</t>
+  </si>
+  <si>
+    <t>CON-EIC_1003</t>
+  </si>
+  <si>
+    <t>Battery, AAA</t>
   </si>
   <si>
     <t>pc/s</t>
   </si>
   <si>
-    <t>A.C. Parts Merchandising</t>
-  </si>
-  <si>
-    <t>Bacolod HR</t>
-  </si>
-  <si>
-    <t>Auto Start/Stop of Deep Well Pump Refill to Raw Water Tank</t>
-  </si>
-  <si>
-    <t>4 Units Cylinder Head (Bare) for CPGC</t>
-  </si>
-  <si>
-    <t>2021-06-09</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>MRIF-2021-06-0018</t>
-  </si>
-  <si>
-    <t>Test sAmple</t>
-  </si>
-  <si>
-    <t>K 47224</t>
-  </si>
-  <si>
-    <t>3-way Valve, Complete</t>
-  </si>
-  <si>
-    <t>2GO Express</t>
-  </si>
-  <si>
-    <t>ECMG</t>
-  </si>
-  <si>
-    <t>Progen Consumables</t>
-  </si>
-  <si>
-    <t>DG2 Main Engine Frame Cleaning and Preserving</t>
-  </si>
-  <si>
-    <t>2021-05-12</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0017</t>
-  </si>
-  <si>
-    <t>sample-2001-2021</t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation</t>
-  </si>
-  <si>
-    <t>Environment/PCO</t>
-  </si>
-  <si>
-    <t>Additional Padlock for Reconditioning Equipment Tool Cabinet</t>
-  </si>
-  <si>
-    <t>125 Vdc Battery Charger</t>
-  </si>
-  <si>
-    <t>sample-1050-20212</t>
-  </si>
-  <si>
-    <t>sample-1050-20211</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0016</t>
-  </si>
-  <si>
-    <t>sample-1001-2021</t>
-  </si>
-  <si>
-    <t>K 27046 B</t>
-  </si>
-  <si>
-    <t>(BIG) Tubular Sealing for Cover K 27007 and Bearing Casing K 28001</t>
-  </si>
-  <si>
-    <t>7-Eleven, LLARC Convenience Store</t>
-  </si>
-  <si>
-    <t>Additional Sludge Recovery Storage</t>
-  </si>
-  <si>
-    <t>12 Units Connecting Rod Assembly and 12 Units Piston Assembly</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>MRIF-2021-05-0015</t>
-  </si>
-  <si>
-    <t>K 47034</t>
+    <t>SM Supermarket</t>
+  </si>
+  <si>
+    <t>Replacement of Drained Battery</t>
+  </si>
+  <si>
+    <t>Thickness Gauge</t>
+  </si>
+  <si>
+    <t>PWHP21-1131-1638-PRGN</t>
+  </si>
+  <si>
+    <t>1635-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0283</t>
+  </si>
+  <si>
+    <t>WHP21-1131-PRGN / PROPR-BCD21-090</t>
+  </si>
+  <si>
+    <t>FFE-OFF_1005</t>
+  </si>
+  <si>
+    <t>Padlock; long shackle, 40mm</t>
+  </si>
+  <si>
+    <t>Ace Hardware Philippines, Inc. - Bacolod Branch</t>
+  </si>
+  <si>
+    <t>Replacement of Damaged Padlock</t>
+  </si>
+  <si>
+    <t>Container Vans</t>
   </si>
   <si>
     <t>2021-05-10</t>
   </si>
   <si>
-    <t>MRIF-2021-05-0014</t>
-  </si>
-  <si>
-    <t>ECMG20-1021</t>
-  </si>
-  <si>
-    <t>Equipment for Engine Parts Thickness Gauge Measurement</t>
-  </si>
-  <si>
-    <t>Engine Parts</t>
+    <t>PIPRO21-1124-1585-PRGN</t>
+  </si>
+  <si>
+    <t>1583-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0282</t>
+  </si>
+  <si>
+    <t>IPRO21-1124-PRGN / PROPR-BCD21-068</t>
+  </si>
+  <si>
+    <t>CON-CHE_1011</t>
+  </si>
+  <si>
+    <t>Acetylene</t>
+  </si>
+  <si>
+    <t>cyl/s</t>
+  </si>
+  <si>
+    <t>Bacolod Oxygen Acetylene Gas Corp.</t>
+  </si>
+  <si>
+    <t>Fabrication</t>
+  </si>
+  <si>
+    <t>Transition Piece Bracket</t>
+  </si>
+  <si>
+    <t>PIPRO21-1124-1584-PRGN</t>
+  </si>
+  <si>
+    <t>1582-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0281</t>
+  </si>
+  <si>
+    <t>CON-CHE_1010</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>PWHP21-1079-1552-PRGN</t>
+  </si>
+  <si>
+    <t>1550-PRGN</t>
+  </si>
+  <si>
+    <t>MRIF-2021-05-0280</t>
+  </si>
+  <si>
+    <t>WHP21-1079 / PROGEN-071-2020</t>
+  </si>
+  <si>
+    <t>CON-HOU_1001</t>
+  </si>
+  <si>
+    <t>Rags, Cotton</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Procolors T-Shirts Printing</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -763,7 +967,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE22"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N2" sqref="N2"/>
@@ -1034,55 +1238,55 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R11" s="2">
-        <v>1001</v>
+        <v>51.1</v>
       </c>
       <c r="S11" s="2">
-        <v>100100</v>
+        <v>1533</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -1092,45 +1296,47 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="2">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R12" s="2">
-        <v>2344</v>
+        <v>40.3</v>
       </c>
       <c r="S12" s="2">
-        <v>53912</v>
+        <v>1612</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1158,57 +1364,59 @@
         <v>51</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12</v>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R13" s="2">
-        <v>1101</v>
+        <v>400</v>
       </c>
       <c r="S13" s="2">
-        <v>110100</v>
+        <v>400</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -1222,51 +1430,53 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q14" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R14" s="2">
-        <v>110</v>
+        <v>50.4</v>
       </c>
       <c r="S14" s="2">
-        <v>22000</v>
+        <v>957.6</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1288,48 +1498,50 @@
         <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="R15" s="2">
-        <v>1001</v>
+        <v>50.4</v>
       </c>
       <c r="S15" s="2">
-        <v>50050</v>
+        <v>554.4</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1344,110 +1556,701 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="R16" s="2">
-        <v>100</v>
+        <v>11.45</v>
       </c>
       <c r="S16" s="2">
-        <v>1000</v>
+        <v>229</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="2">
+        <v>880</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5280</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="2">
+        <v>750</v>
+      </c>
+      <c r="S18" s="2">
+        <v>2250</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="2">
+        <v>750</v>
+      </c>
+      <c r="S19" s="2">
+        <v>2250</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="2">
+        <v>880</v>
+      </c>
+      <c r="S20" s="2">
+        <v>10560</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="2">
+        <v>24.25</v>
+      </c>
+      <c r="S21" s="2">
+        <v>97</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" s="2">
+        <v>299.75</v>
+      </c>
+      <c r="S22" s="2">
+        <v>3597</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1100</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1100</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="2">
+        <v>400</v>
+      </c>
+      <c r="S24" s="2">
+        <v>800</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R25" s="2">
+        <v>50</v>
+      </c>
+      <c r="S25" s="2">
+        <v>750</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +2262,17 @@
     <protectedRange name="ped1d181546acc2399661c6c40a9beb6a" sqref="A14:AE14" password="C724"/>
     <protectedRange name="p0bef65a3b969817700b25eca80231809" sqref="A15:AE15" password="C724"/>
     <protectedRange name="p3c3ae308d44e1437db7fec4ac824dcbe" sqref="A16:AE16" password="C724"/>
-    <protectedRange name="pcb0e4452152caf01f2ddcab59aa774ed" sqref="A19:AC19" password="C724"/>
-    <protectedRange name="p19f680c13282bb793df96480af2f729d" sqref="A21:AC21" password="C724"/>
+    <protectedRange name="pbaf01c4f8129bac3b495ed6ce3d7a20d" sqref="A17:AE17" password="C724"/>
+    <protectedRange name="p1ed67d8fdcda9026ac46d214b4bd359f" sqref="A18:AE18" password="C724"/>
+    <protectedRange name="p91aa4b373289228480b772312167e8b1" sqref="A19:AE19" password="C724"/>
+    <protectedRange name="p79578f6982ac118ac396f49115536361" sqref="A20:AE20" password="C724"/>
+    <protectedRange name="p04e5167e000f3412892a0a6d88eaa380" sqref="A21:AE21" password="C724"/>
+    <protectedRange name="pa92ae8861d22f65476c5fc157c499054" sqref="A22:AE22" password="C724"/>
+    <protectedRange name="pd710f6020a662be45f43bbebee1a0a85" sqref="A23:AE23" password="C724"/>
+    <protectedRange name="p3002bf9e6fdaae719a4a5fd015a50ca4" sqref="A24:AE24" password="C724"/>
+    <protectedRange name="p8dfa80e9f3d51a22d980a49bae761b35" sqref="A25:AE25" password="C724"/>
+    <protectedRange name="p807bd27742240b7001ab7b50e6be40d4" sqref="A28:AC28" password="C724"/>
+    <protectedRange name="pfcf687de1ec7fbd2e3ac88905f396410" sqref="A30:AC30" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B12:C12"/>
@@ -1525,6 +2337,87 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
